--- a/docs/Proyect_Change/change_contro-PETManagerM.xlsx
+++ b/docs/Proyect_Change/change_contro-PETManagerM.xlsx
@@ -12,6 +12,7 @@
     <sheet name="C2" sheetId="3" r:id="rId3"/>
     <sheet name="C3" sheetId="4" r:id="rId4"/>
     <sheet name="C4" sheetId="5" r:id="rId5"/>
+    <sheet name="C5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Fecha</t>
   </si>
@@ -202,6 +203,44 @@
   </si>
   <si>
     <t xml:space="preserve"> toma de caso menor a 3 dias</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>No existe informacion de lo realizado.</t>
+  </si>
+  <si>
+    <t>Solicitud de generar una vista de resumen con los datos de los pacientes realizados</t>
+  </si>
+  <si>
+    <t>Requerimiento de cambio  C5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROGRESO</t>
+    </r>
+  </si>
+  <si>
+    <t>Creacion Ruta con Html de Resumen   @Route/resumen</t>
+  </si>
+  <si>
+    <t>No existe</t>
+  </si>
+  <si>
+    <t>Opcion que permite visualizar un resumen de la informacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No entregado </t>
   </si>
 </sst>
 </file>
@@ -341,7 +380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -370,8 +409,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,8 +466,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="25" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="29">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -455,6 +499,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -784,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J17"/>
+  <dimension ref="C3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -979,12 +1024,39 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="3:10" ht="30">
+      <c r="C18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43609</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" location="'C1'!A1" display="c1"/>
     <hyperlink ref="C15" location="'C2'!A1" display="c2"/>
     <hyperlink ref="C16" location="'C3'!A1" display="c3"/>
     <hyperlink ref="C17" location="'C4'!A1" display="c4"/>
+    <hyperlink ref="C18" location="'C5'!A1" display="c5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1238,7 +1310,7 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1304,6 +1376,77 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="23">
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30">
+      <c r="B7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
